--- a/Question_Set2/Programming skills/Visual Basic for Applications (VBA).xlsx
+++ b/Question_Set2/Programming skills/Visual Basic for Applications (VBA).xlsx
@@ -16,23 +16,56 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'Which of the following instructions will define a new String variable called firstvariable?', 'ques_type': 2, 'options': ['Dim firstvariable as String', 'Set firstvariable as String', 'var firstvariable (String)', 'Declare firstvariable (String)'], 'score': 'Dim firstvariable as String'}, {'title': 'What result should you expect if you apply the instruction Activecell.Value = 5 with the selection of cells shown in the screenshot below?', 'ques_type': 2, 'options': ['Make the values of all of the cells in the range A4:C8 equal to 5.', 'Add 5 to the existing values of all the cells in the range A4:C8.', 'Make the value of cell A4 equal to 5.', 'Add 5 to the value of cell A4.'], 'score': 'Make the value of cell A4 equal to 5.'}, {'title': 'True or false: New labels on UserForms can be created at runtime.', 'ques_type': 11, 'options': ['true', 'false'], 'score': 'True'}, {'title': 'The following scripts (ScriptA and ScriptB, included below) make the same results. True or false: ScriptB performs faster than ScriptA. Sub ScriptA()\nWhile ActiveCell.Value = ""\n           ActiveCell.Value = 1\n           ActiveCell.Offset(1, 0).Select\nWend\nEnd Sub\n \nSub ScriptB()\ni = 0\nDo\n           ActiveCell.Offset(i, 0).Value = 1\n           i = i + 1 \nLoop While ActiveCell.Offset(i, 0).Value = ""\nEnd Sub', 'ques_type': 11, 'options': ['true', 'false'], 'score': 'True'}]</t>
+    <t>questions = [
+    {
+        "title": "Which of the following instructions will define a new String variable called firstvariable?",
+        "ques_type": 2,
+        "options": [
+            "Dim firstvariable as String",
+            "Set firstvariable as String",
+            "var firstvariable (String)",
+            "Declare firstvariable (String)"
+        ],
+        "score": "Dim firstvariable as String"
+    },
+    {
+        "title": "What result should you expect if you apply the instruction Activecell.Value = 5 with the selection of cells shown in the screenshot below?",
+        "ques_type": 2,
+        "options": [
+            "Make the values of all of the cells in the range A4:C8 equal to 5.",
+            "Add 5 to the existing values of all the cells in the range A4:C8.",
+            "Make the value of cell A4 equal to 5.",
+            "Add 5 to the value of cell A4."
+        ],
+        "score": "Make the value of cell A4 equal to 5."
+    },
+    {
+        "title": "True or false: New labels on UserForms can be created at runtime.",
+        "ques_type": 11,
+        "options": [
+            "true",
+            "false"
+        ],
+        "score": "True"
+    },
+    {
+        "title": "The following scripts (ScriptA and ScriptB, included below) make the same results. True or false: ScriptB performs faster than ScriptA. Sub ScriptA()\nWhile ActiveCell.Value = \"\"\n           ActiveCell.Value = 1\n           ActiveCell.Offset(1, 0).Select\nWend\nEnd Sub\n \nSub ScriptB()\ni = 0\nDo\n           ActiveCell.Offset(i, 0).Value = 1\n           i = i + 1 \nLoop While ActiveCell.Offset(i, 0).Value = \"\"\nEnd Sub",
+        "ques_type": 11,
+        "options": [
+            "true",
+            "false"
+        ],
+        "score": "True"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +81,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +89,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +389,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
